--- a/AI_Infra学习计划_8个月.xlsx
+++ b/AI_Infra学习计划_8个月.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Python\CUDA\cuda-learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3B91DF8-CD87-4FD6-B87B-0711851BBC40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18FF012B-B977-438D-8482-24E0B723D4E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="67080" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="67080" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="总览" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="580">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1142" uniqueCount="584">
   <si>
     <t>AI Infrastructure推理优化学习计划</t>
   </si>
@@ -1795,12 +1795,36 @@
     <t>CPU版向量加法实现</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
+  <si>
+    <t>✓</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPU版向量加法实现
+GPU版本添加计时
+理解cudaEvent的使用
+制作了性能对比表
+理解GPU为什么快</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPU版向量加法
+GPU性能测试</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>矩阵加法运行成功</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1883,6 +1907,12 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI Symbol"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -1957,7 +1987,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2004,26 +2034,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2038,6 +2048,32 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2358,16 +2394,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
     </row>
     <row r="3" spans="1:8" ht="17.5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -2665,24 +2701,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
     </row>
     <row r="3" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="23" t="s">
+      <c r="B3" s="26"/>
+      <c r="C3" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="D3" s="21"/>
+      <c r="D3" s="26"/>
       <c r="E3" s="10" t="s">
         <v>64</v>
       </c>
@@ -2740,23 +2776,23 @@
       <c r="A12" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
     </row>
     <row r="14" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="24" t="s">
+      <c r="A14" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="B14" s="21"/>
-      <c r="C14" s="23" t="s">
+      <c r="B14" s="26"/>
+      <c r="C14" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="D14" s="21"/>
+      <c r="D14" s="26"/>
       <c r="E14" s="10" t="s">
         <v>79</v>
       </c>
@@ -2814,23 +2850,23 @@
       <c r="A23" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
     </row>
     <row r="25" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A25" s="24" t="s">
+      <c r="A25" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="B25" s="21"/>
-      <c r="C25" s="23" t="s">
+      <c r="B25" s="26"/>
+      <c r="C25" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="D25" s="21"/>
+      <c r="D25" s="26"/>
       <c r="E25" s="10" t="s">
         <v>79</v>
       </c>
@@ -2888,23 +2924,23 @@
       <c r="A34" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B34" s="22" t="s">
+      <c r="B34" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="C34" s="21"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="26"/>
     </row>
     <row r="36" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A36" s="24" t="s">
+      <c r="A36" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="B36" s="21"/>
-      <c r="C36" s="23" t="s">
+      <c r="B36" s="26"/>
+      <c r="C36" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="D36" s="21"/>
+      <c r="D36" s="26"/>
       <c r="E36" s="10" t="s">
         <v>64</v>
       </c>
@@ -2962,23 +2998,23 @@
       <c r="A45" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B45" s="22" t="s">
+      <c r="B45" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="C45" s="21"/>
-      <c r="D45" s="21"/>
-      <c r="E45" s="21"/>
-      <c r="F45" s="21"/>
+      <c r="C45" s="26"/>
+      <c r="D45" s="26"/>
+      <c r="E45" s="26"/>
+      <c r="F45" s="26"/>
     </row>
     <row r="47" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A47" s="24" t="s">
+      <c r="A47" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="B47" s="21"/>
-      <c r="C47" s="23" t="s">
+      <c r="B47" s="26"/>
+      <c r="C47" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="D47" s="21"/>
+      <c r="D47" s="26"/>
       <c r="E47" s="10" t="s">
         <v>79</v>
       </c>
@@ -3036,23 +3072,23 @@
       <c r="A56" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B56" s="22" t="s">
+      <c r="B56" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="C56" s="21"/>
-      <c r="D56" s="21"/>
-      <c r="E56" s="21"/>
-      <c r="F56" s="21"/>
+      <c r="C56" s="26"/>
+      <c r="D56" s="26"/>
+      <c r="E56" s="26"/>
+      <c r="F56" s="26"/>
     </row>
     <row r="58" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A58" s="24" t="s">
+      <c r="A58" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="B58" s="21"/>
-      <c r="C58" s="23" t="s">
+      <c r="B58" s="26"/>
+      <c r="C58" s="28" t="s">
         <v>126</v>
       </c>
-      <c r="D58" s="21"/>
+      <c r="D58" s="26"/>
       <c r="E58" s="10" t="s">
         <v>64</v>
       </c>
@@ -3110,23 +3146,23 @@
       <c r="A67" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B67" s="22" t="s">
+      <c r="B67" s="29" t="s">
         <v>136</v>
       </c>
-      <c r="C67" s="21"/>
-      <c r="D67" s="21"/>
-      <c r="E67" s="21"/>
-      <c r="F67" s="21"/>
+      <c r="C67" s="26"/>
+      <c r="D67" s="26"/>
+      <c r="E67" s="26"/>
+      <c r="F67" s="26"/>
     </row>
     <row r="69" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A69" s="24" t="s">
+      <c r="A69" s="30" t="s">
         <v>137</v>
       </c>
-      <c r="B69" s="21"/>
-      <c r="C69" s="23" t="s">
+      <c r="B69" s="26"/>
+      <c r="C69" s="28" t="s">
         <v>138</v>
       </c>
-      <c r="D69" s="21"/>
+      <c r="D69" s="26"/>
       <c r="E69" s="10" t="s">
         <v>64</v>
       </c>
@@ -3189,23 +3225,23 @@
       <c r="A79" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B79" s="22" t="s">
+      <c r="B79" s="29" t="s">
         <v>149</v>
       </c>
-      <c r="C79" s="21"/>
-      <c r="D79" s="21"/>
-      <c r="E79" s="21"/>
-      <c r="F79" s="21"/>
+      <c r="C79" s="26"/>
+      <c r="D79" s="26"/>
+      <c r="E79" s="26"/>
+      <c r="F79" s="26"/>
     </row>
     <row r="81" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A81" s="24" t="s">
+      <c r="A81" s="30" t="s">
         <v>150</v>
       </c>
-      <c r="B81" s="21"/>
-      <c r="C81" s="23" t="s">
+      <c r="B81" s="26"/>
+      <c r="C81" s="28" t="s">
         <v>151</v>
       </c>
-      <c r="D81" s="21"/>
+      <c r="D81" s="26"/>
       <c r="E81" s="10" t="s">
         <v>152</v>
       </c>
@@ -3263,16 +3299,25 @@
       <c r="A90" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B90" s="22" t="s">
+      <c r="B90" s="29" t="s">
         <v>162</v>
       </c>
-      <c r="C90" s="21"/>
-      <c r="D90" s="21"/>
-      <c r="E90" s="21"/>
-      <c r="F90" s="21"/>
+      <c r="C90" s="26"/>
+      <c r="D90" s="26"/>
+      <c r="E90" s="26"/>
+      <c r="F90" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="B67:F67"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="B90:F90"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="B56:F56"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A81:B81"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="C81:D81"/>
     <mergeCell ref="B45:F45"/>
@@ -3289,15 +3334,6 @@
     <mergeCell ref="C47:D47"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="C25:D25"/>
-    <mergeCell ref="B67:F67"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="B90:F90"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="B56:F56"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="A81:B81"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3323,15 +3359,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="27" t="s">
         <v>163</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -3348,59 +3384,59 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="31" t="s">
         <v>168</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>169</v>
       </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>170</v>
       </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>171</v>
       </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
     </row>
     <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="31" t="s">
         <v>172</v>
       </c>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
@@ -3510,66 +3546,66 @@
       <c r="B18" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
     </row>
     <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="26" t="s">
+      <c r="A20" s="31" t="s">
         <v>182</v>
       </c>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
     </row>
     <row r="21" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
     </row>
     <row r="22" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="B22" s="21"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
     </row>
     <row r="23" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
     </row>
     <row r="24" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B24" s="21"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -3596,44 +3632,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H246"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M10" sqref="M10"/>
+      <selection pane="bottomLeft" activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12" style="30" customWidth="1"/>
-    <col min="2" max="2" width="8" style="30" customWidth="1"/>
-    <col min="3" max="4" width="12" style="30" customWidth="1"/>
-    <col min="5" max="5" width="30" style="30" customWidth="1"/>
-    <col min="6" max="6" width="10" style="30" customWidth="1"/>
-    <col min="7" max="8" width="30" style="30" customWidth="1"/>
+    <col min="1" max="1" width="12" style="20" customWidth="1"/>
+    <col min="2" max="2" width="8" style="20" customWidth="1"/>
+    <col min="3" max="4" width="12" style="20" customWidth="1"/>
+    <col min="5" max="5" width="30" style="20" customWidth="1"/>
+    <col min="6" max="6" width="10" style="20" customWidth="1"/>
+    <col min="7" max="8" width="30" style="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="27" t="s">
         <v>187</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="33" t="s">
         <v>188</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
     </row>
     <row r="5" spans="1:8" ht="28" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
@@ -3662,2838 +3698,2853 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="20" t="s">
         <v>573</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="20" t="s">
         <v>574</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="20" t="s">
         <v>575</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="D6" s="20" t="s">
         <v>576</v>
       </c>
-      <c r="E6" s="31" t="s">
+      <c r="E6" s="21" t="s">
         <v>577</v>
       </c>
-      <c r="F6" s="32">
+      <c r="F6" s="22">
         <v>1</v>
       </c>
-      <c r="G6" s="31" t="s">
+      <c r="G6" s="21" t="s">
         <v>578</v>
       </c>
-      <c r="H6" s="30" t="s">
+      <c r="H6" s="20" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="30" t="s">
+    <row r="7" spans="1:8" ht="70" x14ac:dyDescent="0.25">
+      <c r="A7" s="20" t="s">
         <v>195</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="30" t="s">
-        <v>47</v>
+      <c r="C7" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>576</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>582</v>
+      </c>
+      <c r="F7" s="22">
+        <v>1</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>581</v>
+      </c>
+      <c r="H7" s="20" t="s">
+        <v>583</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="20" t="s">
         <v>196</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="20" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="20" t="s">
         <v>197</v>
       </c>
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="20" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="23" t="s">
         <v>198</v>
       </c>
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="C10" s="33" t="s">
+      <c r="C10" s="23" t="s">
         <v>199</v>
       </c>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="20" t="s">
         <v>200</v>
       </c>
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="20" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="20" t="s">
         <v>201</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="20" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="30" t="s">
+      <c r="A13" s="20" t="s">
         <v>202</v>
       </c>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="C13" s="20" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="30" t="s">
+      <c r="A14" s="20" t="s">
         <v>203</v>
       </c>
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="C14" s="30" t="s">
+      <c r="C14" s="20" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="30" t="s">
+      <c r="A15" s="20" t="s">
         <v>204</v>
       </c>
-      <c r="B15" s="30" t="s">
+      <c r="B15" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="30" t="s">
+      <c r="C15" s="20" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="30" t="s">
+      <c r="A16" s="20" t="s">
         <v>205</v>
       </c>
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="30" t="s">
+      <c r="C16" s="20" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="33" t="s">
+      <c r="A17" s="23" t="s">
         <v>206</v>
       </c>
-      <c r="B17" s="33" t="s">
+      <c r="B17" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="C17" s="33" t="s">
+      <c r="C17" s="23" t="s">
         <v>199</v>
       </c>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="33"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="30" t="s">
+      <c r="A18" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="B18" s="30" t="s">
+      <c r="B18" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="30" t="s">
+      <c r="C18" s="20" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="30" t="s">
+      <c r="A19" s="20" t="s">
         <v>208</v>
       </c>
-      <c r="B19" s="30" t="s">
+      <c r="B19" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="30" t="s">
+      <c r="C19" s="20" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="30" t="s">
+      <c r="A20" s="20" t="s">
         <v>209</v>
       </c>
-      <c r="B20" s="30" t="s">
+      <c r="B20" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="30" t="s">
+      <c r="C20" s="20" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="30" t="s">
+      <c r="A21" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="B21" s="30" t="s">
+      <c r="B21" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="C21" s="30" t="s">
+      <c r="C21" s="20" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="30" t="s">
+      <c r="A22" s="20" t="s">
         <v>211</v>
       </c>
-      <c r="B22" s="30" t="s">
+      <c r="B22" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C22" s="30" t="s">
+      <c r="C22" s="20" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="30" t="s">
+      <c r="A23" s="20" t="s">
         <v>212</v>
       </c>
-      <c r="B23" s="30" t="s">
+      <c r="B23" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C23" s="30" t="s">
+      <c r="C23" s="20" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="33" t="s">
+      <c r="A24" s="23" t="s">
         <v>213</v>
       </c>
-      <c r="B24" s="33" t="s">
+      <c r="B24" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="C24" s="33" t="s">
+      <c r="C24" s="23" t="s">
         <v>199</v>
       </c>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="30" t="s">
+      <c r="A25" s="20" t="s">
         <v>214</v>
       </c>
-      <c r="B25" s="30" t="s">
+      <c r="B25" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C25" s="30" t="s">
+      <c r="C25" s="20" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="30" t="s">
+      <c r="A26" s="20" t="s">
         <v>215</v>
       </c>
-      <c r="B26" s="30" t="s">
+      <c r="B26" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="30" t="s">
+      <c r="C26" s="20" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="30" t="s">
+      <c r="A27" s="20" t="s">
         <v>216</v>
       </c>
-      <c r="B27" s="30" t="s">
+      <c r="B27" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C27" s="30" t="s">
+      <c r="C27" s="20" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="30" t="s">
+      <c r="A28" s="20" t="s">
         <v>217</v>
       </c>
-      <c r="B28" s="30" t="s">
+      <c r="B28" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="C28" s="30" t="s">
+      <c r="C28" s="20" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="30" t="s">
+      <c r="A29" s="20" t="s">
         <v>218</v>
       </c>
-      <c r="B29" s="30" t="s">
+      <c r="B29" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C29" s="30" t="s">
+      <c r="C29" s="20" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="30" t="s">
+      <c r="A30" s="20" t="s">
         <v>219</v>
       </c>
-      <c r="B30" s="30" t="s">
+      <c r="B30" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C30" s="30" t="s">
+      <c r="C30" s="20" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="33" t="s">
+      <c r="A31" s="23" t="s">
         <v>220</v>
       </c>
-      <c r="B31" s="33" t="s">
+      <c r="B31" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="C31" s="33" t="s">
+      <c r="C31" s="23" t="s">
         <v>199</v>
       </c>
-      <c r="D31" s="33"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="33"/>
-      <c r="G31" s="33"/>
-      <c r="H31" s="33"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="30" t="s">
+      <c r="A32" s="20" t="s">
         <v>221</v>
       </c>
-      <c r="B32" s="30" t="s">
+      <c r="B32" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C32" s="30" t="s">
+      <c r="C32" s="20" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="30" t="s">
+      <c r="A33" s="20" t="s">
         <v>222</v>
       </c>
-      <c r="B33" s="30" t="s">
+      <c r="B33" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="C33" s="30" t="s">
+      <c r="C33" s="20" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="30" t="s">
+      <c r="A34" s="20" t="s">
         <v>223</v>
       </c>
-      <c r="B34" s="30" t="s">
+      <c r="B34" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C34" s="30" t="s">
+      <c r="C34" s="20" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="30" t="s">
+      <c r="A35" s="20" t="s">
         <v>224</v>
       </c>
-      <c r="B35" s="30" t="s">
+      <c r="B35" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="C35" s="30" t="s">
+      <c r="C35" s="20" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="30" t="s">
+      <c r="A36" s="20" t="s">
         <v>225</v>
       </c>
-      <c r="B36" s="30" t="s">
+      <c r="B36" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C36" s="30" t="s">
+      <c r="C36" s="20" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="30" t="s">
+      <c r="A37" s="20" t="s">
         <v>226</v>
       </c>
-      <c r="B37" s="30" t="s">
+      <c r="B37" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C37" s="30" t="s">
+      <c r="C37" s="20" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="33" t="s">
+      <c r="A38" s="23" t="s">
         <v>227</v>
       </c>
-      <c r="B38" s="33" t="s">
+      <c r="B38" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="C38" s="33" t="s">
+      <c r="C38" s="23" t="s">
         <v>199</v>
       </c>
-      <c r="D38" s="33"/>
-      <c r="E38" s="33"/>
-      <c r="F38" s="33"/>
-      <c r="G38" s="33"/>
-      <c r="H38" s="33"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="23"/>
+      <c r="G38" s="23"/>
+      <c r="H38" s="23"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="30" t="s">
+      <c r="A39" s="20" t="s">
         <v>228</v>
       </c>
-      <c r="B39" s="30" t="s">
+      <c r="B39" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C39" s="30" t="s">
+      <c r="C39" s="20" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="30" t="s">
+      <c r="A40" s="20" t="s">
         <v>229</v>
       </c>
-      <c r="B40" s="30" t="s">
+      <c r="B40" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="C40" s="30" t="s">
+      <c r="C40" s="20" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="30" t="s">
+      <c r="A41" s="20" t="s">
         <v>230</v>
       </c>
-      <c r="B41" s="30" t="s">
+      <c r="B41" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C41" s="30" t="s">
+      <c r="C41" s="20" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="30" t="s">
+      <c r="A42" s="20" t="s">
         <v>231</v>
       </c>
-      <c r="B42" s="30" t="s">
+      <c r="B42" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="C42" s="30" t="s">
+      <c r="C42" s="20" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="30" t="s">
+      <c r="A43" s="20" t="s">
         <v>232</v>
       </c>
-      <c r="B43" s="30" t="s">
+      <c r="B43" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C43" s="30" t="s">
+      <c r="C43" s="20" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="30" t="s">
+      <c r="A44" s="20" t="s">
         <v>233</v>
       </c>
-      <c r="B44" s="30" t="s">
+      <c r="B44" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C44" s="30" t="s">
+      <c r="C44" s="20" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="33" t="s">
+      <c r="A45" s="23" t="s">
         <v>234</v>
       </c>
-      <c r="B45" s="33" t="s">
+      <c r="B45" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="C45" s="33" t="s">
+      <c r="C45" s="23" t="s">
         <v>199</v>
       </c>
-      <c r="D45" s="33"/>
-      <c r="E45" s="33"/>
-      <c r="F45" s="33"/>
-      <c r="G45" s="33"/>
-      <c r="H45" s="33"/>
+      <c r="D45" s="23"/>
+      <c r="E45" s="23"/>
+      <c r="F45" s="23"/>
+      <c r="G45" s="23"/>
+      <c r="H45" s="23"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="30" t="s">
+      <c r="A46" s="20" t="s">
         <v>235</v>
       </c>
-      <c r="B46" s="30" t="s">
+      <c r="B46" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C46" s="30" t="s">
+      <c r="C46" s="20" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="30" t="s">
+      <c r="A47" s="20" t="s">
         <v>236</v>
       </c>
-      <c r="B47" s="30" t="s">
+      <c r="B47" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="C47" s="30" t="s">
+      <c r="C47" s="20" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="30" t="s">
+      <c r="A48" s="20" t="s">
         <v>237</v>
       </c>
-      <c r="B48" s="30" t="s">
+      <c r="B48" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C48" s="30" t="s">
+      <c r="C48" s="20" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="30" t="s">
+      <c r="A49" s="20" t="s">
         <v>238</v>
       </c>
-      <c r="B49" s="30" t="s">
+      <c r="B49" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="C49" s="30" t="s">
+      <c r="C49" s="20" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="30" t="s">
+      <c r="A50" s="20" t="s">
         <v>239</v>
       </c>
-      <c r="B50" s="30" t="s">
+      <c r="B50" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C50" s="30" t="s">
+      <c r="C50" s="20" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="30" t="s">
+      <c r="A51" s="20" t="s">
         <v>240</v>
       </c>
-      <c r="B51" s="30" t="s">
+      <c r="B51" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C51" s="30" t="s">
+      <c r="C51" s="20" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="33" t="s">
+      <c r="A52" s="23" t="s">
         <v>241</v>
       </c>
-      <c r="B52" s="33" t="s">
+      <c r="B52" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="C52" s="33" t="s">
+      <c r="C52" s="23" t="s">
         <v>199</v>
       </c>
-      <c r="D52" s="33"/>
-      <c r="E52" s="33"/>
-      <c r="F52" s="33"/>
-      <c r="G52" s="33"/>
-      <c r="H52" s="33"/>
+      <c r="D52" s="23"/>
+      <c r="E52" s="23"/>
+      <c r="F52" s="23"/>
+      <c r="G52" s="23"/>
+      <c r="H52" s="23"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="30" t="s">
+      <c r="A53" s="20" t="s">
         <v>242</v>
       </c>
-      <c r="B53" s="30" t="s">
+      <c r="B53" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C53" s="30" t="s">
+      <c r="C53" s="20" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="30" t="s">
+      <c r="A54" s="20" t="s">
         <v>243</v>
       </c>
-      <c r="B54" s="30" t="s">
+      <c r="B54" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="C54" s="30" t="s">
+      <c r="C54" s="20" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="30" t="s">
+      <c r="A55" s="20" t="s">
         <v>244</v>
       </c>
-      <c r="B55" s="30" t="s">
+      <c r="B55" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C55" s="30" t="s">
+      <c r="C55" s="20" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="30" t="s">
+      <c r="A56" s="20" t="s">
         <v>245</v>
       </c>
-      <c r="B56" s="30" t="s">
+      <c r="B56" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="C56" s="30" t="s">
+      <c r="C56" s="20" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="30" t="s">
+      <c r="A57" s="20" t="s">
         <v>246</v>
       </c>
-      <c r="B57" s="30" t="s">
+      <c r="B57" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C57" s="30" t="s">
+      <c r="C57" s="20" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="30" t="s">
+      <c r="A58" s="20" t="s">
         <v>247</v>
       </c>
-      <c r="B58" s="30" t="s">
+      <c r="B58" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C58" s="30" t="s">
+      <c r="C58" s="20" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="33" t="s">
+      <c r="A59" s="23" t="s">
         <v>248</v>
       </c>
-      <c r="B59" s="33" t="s">
+      <c r="B59" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="C59" s="33" t="s">
+      <c r="C59" s="23" t="s">
         <v>199</v>
       </c>
-      <c r="D59" s="33"/>
-      <c r="E59" s="33"/>
-      <c r="F59" s="33"/>
-      <c r="G59" s="33"/>
-      <c r="H59" s="33"/>
+      <c r="D59" s="23"/>
+      <c r="E59" s="23"/>
+      <c r="F59" s="23"/>
+      <c r="G59" s="23"/>
+      <c r="H59" s="23"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="30" t="s">
+      <c r="A60" s="20" t="s">
         <v>249</v>
       </c>
-      <c r="B60" s="30" t="s">
+      <c r="B60" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C60" s="30" t="s">
+      <c r="C60" s="20" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="30" t="s">
+      <c r="A61" s="20" t="s">
         <v>250</v>
       </c>
-      <c r="B61" s="30" t="s">
+      <c r="B61" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="C61" s="30" t="s">
+      <c r="C61" s="20" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="30" t="s">
+      <c r="A62" s="20" t="s">
         <v>251</v>
       </c>
-      <c r="B62" s="30" t="s">
+      <c r="B62" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C62" s="30" t="s">
+      <c r="C62" s="20" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="30" t="s">
+      <c r="A63" s="20" t="s">
         <v>252</v>
       </c>
-      <c r="B63" s="30" t="s">
+      <c r="B63" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="C63" s="30" t="s">
+      <c r="C63" s="20" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="30" t="s">
+      <c r="A64" s="20" t="s">
         <v>253</v>
       </c>
-      <c r="B64" s="30" t="s">
+      <c r="B64" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C64" s="30" t="s">
+      <c r="C64" s="20" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="30" t="s">
+      <c r="A65" s="20" t="s">
         <v>254</v>
       </c>
-      <c r="B65" s="30" t="s">
+      <c r="B65" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C65" s="30" t="s">
+      <c r="C65" s="20" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="33" t="s">
+      <c r="A66" s="23" t="s">
         <v>255</v>
       </c>
-      <c r="B66" s="33" t="s">
+      <c r="B66" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="C66" s="33" t="s">
+      <c r="C66" s="23" t="s">
         <v>199</v>
       </c>
-      <c r="D66" s="33"/>
-      <c r="E66" s="33"/>
-      <c r="F66" s="33"/>
-      <c r="G66" s="33"/>
-      <c r="H66" s="33"/>
+      <c r="D66" s="23"/>
+      <c r="E66" s="23"/>
+      <c r="F66" s="23"/>
+      <c r="G66" s="23"/>
+      <c r="H66" s="23"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="30" t="s">
+      <c r="A67" s="20" t="s">
         <v>256</v>
       </c>
-      <c r="B67" s="30" t="s">
+      <c r="B67" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C67" s="30" t="s">
+      <c r="C67" s="20" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="30" t="s">
+      <c r="A68" s="20" t="s">
         <v>257</v>
       </c>
-      <c r="B68" s="30" t="s">
+      <c r="B68" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="C68" s="30" t="s">
+      <c r="C68" s="20" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="30" t="s">
+      <c r="A69" s="20" t="s">
         <v>258</v>
       </c>
-      <c r="B69" s="30" t="s">
+      <c r="B69" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C69" s="30" t="s">
+      <c r="C69" s="20" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="30" t="s">
+      <c r="A70" s="20" t="s">
         <v>259</v>
       </c>
-      <c r="B70" s="30" t="s">
+      <c r="B70" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="C70" s="30" t="s">
+      <c r="C70" s="20" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="30" t="s">
+      <c r="A71" s="20" t="s">
         <v>260</v>
       </c>
-      <c r="B71" s="30" t="s">
+      <c r="B71" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C71" s="30" t="s">
+      <c r="C71" s="20" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="30" t="s">
+      <c r="A72" s="20" t="s">
         <v>261</v>
       </c>
-      <c r="B72" s="30" t="s">
+      <c r="B72" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C72" s="30" t="s">
+      <c r="C72" s="20" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="33" t="s">
+      <c r="A73" s="23" t="s">
         <v>262</v>
       </c>
-      <c r="B73" s="33" t="s">
+      <c r="B73" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="C73" s="33" t="s">
+      <c r="C73" s="23" t="s">
         <v>199</v>
       </c>
-      <c r="D73" s="33"/>
-      <c r="E73" s="33"/>
-      <c r="F73" s="33"/>
-      <c r="G73" s="33"/>
-      <c r="H73" s="33"/>
+      <c r="D73" s="23"/>
+      <c r="E73" s="23"/>
+      <c r="F73" s="23"/>
+      <c r="G73" s="23"/>
+      <c r="H73" s="23"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="30" t="s">
+      <c r="A74" s="20" t="s">
         <v>263</v>
       </c>
-      <c r="B74" s="30" t="s">
+      <c r="B74" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C74" s="30" t="s">
+      <c r="C74" s="20" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="30" t="s">
+      <c r="A75" s="20" t="s">
         <v>264</v>
       </c>
-      <c r="B75" s="30" t="s">
+      <c r="B75" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="C75" s="30" t="s">
+      <c r="C75" s="20" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="30" t="s">
+      <c r="A76" s="20" t="s">
         <v>265</v>
       </c>
-      <c r="B76" s="30" t="s">
+      <c r="B76" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C76" s="30" t="s">
+      <c r="C76" s="20" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="30" t="s">
+      <c r="A77" s="20" t="s">
         <v>266</v>
       </c>
-      <c r="B77" s="30" t="s">
+      <c r="B77" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="C77" s="30" t="s">
+      <c r="C77" s="20" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="30" t="s">
+      <c r="A78" s="20" t="s">
         <v>267</v>
       </c>
-      <c r="B78" s="30" t="s">
+      <c r="B78" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C78" s="30" t="s">
+      <c r="C78" s="20" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="30" t="s">
+      <c r="A79" s="20" t="s">
         <v>268</v>
       </c>
-      <c r="B79" s="30" t="s">
+      <c r="B79" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C79" s="30" t="s">
+      <c r="C79" s="20" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" s="33" t="s">
+      <c r="A80" s="23" t="s">
         <v>269</v>
       </c>
-      <c r="B80" s="33" t="s">
+      <c r="B80" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="C80" s="33" t="s">
+      <c r="C80" s="23" t="s">
         <v>199</v>
       </c>
-      <c r="D80" s="33"/>
-      <c r="E80" s="33"/>
-      <c r="F80" s="33"/>
-      <c r="G80" s="33"/>
-      <c r="H80" s="33"/>
+      <c r="D80" s="23"/>
+      <c r="E80" s="23"/>
+      <c r="F80" s="23"/>
+      <c r="G80" s="23"/>
+      <c r="H80" s="23"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="30" t="s">
+      <c r="A81" s="20" t="s">
         <v>270</v>
       </c>
-      <c r="B81" s="30" t="s">
+      <c r="B81" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C81" s="30" t="s">
+      <c r="C81" s="20" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="30" t="s">
+      <c r="A82" s="20" t="s">
         <v>271</v>
       </c>
-      <c r="B82" s="30" t="s">
+      <c r="B82" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="C82" s="30" t="s">
+      <c r="C82" s="20" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83" s="30" t="s">
+      <c r="A83" s="20" t="s">
         <v>272</v>
       </c>
-      <c r="B83" s="30" t="s">
+      <c r="B83" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C83" s="30" t="s">
+      <c r="C83" s="20" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="30" t="s">
+      <c r="A84" s="20" t="s">
         <v>273</v>
       </c>
-      <c r="B84" s="30" t="s">
+      <c r="B84" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="C84" s="30" t="s">
+      <c r="C84" s="20" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" s="30" t="s">
+      <c r="A85" s="20" t="s">
         <v>274</v>
       </c>
-      <c r="B85" s="30" t="s">
+      <c r="B85" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C85" s="30" t="s">
+      <c r="C85" s="20" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="30" t="s">
+      <c r="A86" s="20" t="s">
         <v>275</v>
       </c>
-      <c r="B86" s="30" t="s">
+      <c r="B86" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C86" s="30" t="s">
+      <c r="C86" s="20" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" s="33" t="s">
+      <c r="A87" s="23" t="s">
         <v>276</v>
       </c>
-      <c r="B87" s="33" t="s">
+      <c r="B87" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="C87" s="33" t="s">
+      <c r="C87" s="23" t="s">
         <v>199</v>
       </c>
-      <c r="D87" s="33"/>
-      <c r="E87" s="33"/>
-      <c r="F87" s="33"/>
-      <c r="G87" s="33"/>
-      <c r="H87" s="33"/>
+      <c r="D87" s="23"/>
+      <c r="E87" s="23"/>
+      <c r="F87" s="23"/>
+      <c r="G87" s="23"/>
+      <c r="H87" s="23"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" s="30" t="s">
+      <c r="A88" s="20" t="s">
         <v>277</v>
       </c>
-      <c r="B88" s="30" t="s">
+      <c r="B88" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C88" s="30" t="s">
+      <c r="C88" s="20" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" s="30" t="s">
+      <c r="A89" s="20" t="s">
         <v>278</v>
       </c>
-      <c r="B89" s="30" t="s">
+      <c r="B89" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="C89" s="30" t="s">
+      <c r="C89" s="20" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="30" t="s">
+      <c r="A90" s="20" t="s">
         <v>279</v>
       </c>
-      <c r="B90" s="30" t="s">
+      <c r="B90" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C90" s="30" t="s">
+      <c r="C90" s="20" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="30" t="s">
+      <c r="A91" s="20" t="s">
         <v>280</v>
       </c>
-      <c r="B91" s="30" t="s">
+      <c r="B91" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="C91" s="30" t="s">
+      <c r="C91" s="20" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92" s="30" t="s">
+      <c r="A92" s="20" t="s">
         <v>281</v>
       </c>
-      <c r="B92" s="30" t="s">
+      <c r="B92" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C92" s="30" t="s">
+      <c r="C92" s="20" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" s="30" t="s">
+      <c r="A93" s="20" t="s">
         <v>282</v>
       </c>
-      <c r="B93" s="30" t="s">
+      <c r="B93" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C93" s="30" t="s">
+      <c r="C93" s="20" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" s="33" t="s">
+      <c r="A94" s="23" t="s">
         <v>283</v>
       </c>
-      <c r="B94" s="33" t="s">
+      <c r="B94" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="C94" s="33" t="s">
+      <c r="C94" s="23" t="s">
         <v>199</v>
       </c>
-      <c r="D94" s="33"/>
-      <c r="E94" s="33"/>
-      <c r="F94" s="33"/>
-      <c r="G94" s="33"/>
-      <c r="H94" s="33"/>
+      <c r="D94" s="23"/>
+      <c r="E94" s="23"/>
+      <c r="F94" s="23"/>
+      <c r="G94" s="23"/>
+      <c r="H94" s="23"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" s="30" t="s">
+      <c r="A95" s="20" t="s">
         <v>284</v>
       </c>
-      <c r="B95" s="30" t="s">
+      <c r="B95" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C95" s="30" t="s">
+      <c r="C95" s="20" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" s="30" t="s">
+      <c r="A96" s="20" t="s">
         <v>285</v>
       </c>
-      <c r="B96" s="30" t="s">
+      <c r="B96" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="C96" s="30" t="s">
+      <c r="C96" s="20" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" s="30" t="s">
+      <c r="A97" s="20" t="s">
         <v>286</v>
       </c>
-      <c r="B97" s="30" t="s">
+      <c r="B97" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C97" s="30" t="s">
+      <c r="C97" s="20" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98" s="30" t="s">
+      <c r="A98" s="20" t="s">
         <v>287</v>
       </c>
-      <c r="B98" s="30" t="s">
+      <c r="B98" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="C98" s="30" t="s">
+      <c r="C98" s="20" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99" s="30" t="s">
+      <c r="A99" s="20" t="s">
         <v>288</v>
       </c>
-      <c r="B99" s="30" t="s">
+      <c r="B99" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C99" s="30" t="s">
+      <c r="C99" s="20" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A100" s="30" t="s">
+      <c r="A100" s="20" t="s">
         <v>289</v>
       </c>
-      <c r="B100" s="30" t="s">
+      <c r="B100" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C100" s="30" t="s">
+      <c r="C100" s="20" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" s="33" t="s">
+      <c r="A101" s="23" t="s">
         <v>290</v>
       </c>
-      <c r="B101" s="33" t="s">
+      <c r="B101" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="C101" s="33" t="s">
+      <c r="C101" s="23" t="s">
         <v>199</v>
       </c>
-      <c r="D101" s="33"/>
-      <c r="E101" s="33"/>
-      <c r="F101" s="33"/>
-      <c r="G101" s="33"/>
-      <c r="H101" s="33"/>
+      <c r="D101" s="23"/>
+      <c r="E101" s="23"/>
+      <c r="F101" s="23"/>
+      <c r="G101" s="23"/>
+      <c r="H101" s="23"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102" s="30" t="s">
+      <c r="A102" s="20" t="s">
         <v>291</v>
       </c>
-      <c r="B102" s="30" t="s">
+      <c r="B102" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C102" s="30" t="s">
+      <c r="C102" s="20" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A103" s="30" t="s">
+      <c r="A103" s="20" t="s">
         <v>292</v>
       </c>
-      <c r="B103" s="30" t="s">
+      <c r="B103" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="C103" s="30" t="s">
+      <c r="C103" s="20" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A104" s="30" t="s">
+      <c r="A104" s="20" t="s">
         <v>293</v>
       </c>
-      <c r="B104" s="30" t="s">
+      <c r="B104" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C104" s="30" t="s">
+      <c r="C104" s="20" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A105" s="30" t="s">
+      <c r="A105" s="20" t="s">
         <v>294</v>
       </c>
-      <c r="B105" s="30" t="s">
+      <c r="B105" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="C105" s="30" t="s">
+      <c r="C105" s="20" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A106" s="30" t="s">
+      <c r="A106" s="20" t="s">
         <v>295</v>
       </c>
-      <c r="B106" s="30" t="s">
+      <c r="B106" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C106" s="30" t="s">
+      <c r="C106" s="20" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A107" s="30" t="s">
+      <c r="A107" s="20" t="s">
         <v>296</v>
       </c>
-      <c r="B107" s="30" t="s">
+      <c r="B107" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C107" s="30" t="s">
+      <c r="C107" s="20" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A108" s="33" t="s">
+      <c r="A108" s="23" t="s">
         <v>297</v>
       </c>
-      <c r="B108" s="33" t="s">
+      <c r="B108" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="C108" s="33" t="s">
+      <c r="C108" s="23" t="s">
         <v>199</v>
       </c>
-      <c r="D108" s="33"/>
-      <c r="E108" s="33"/>
-      <c r="F108" s="33"/>
-      <c r="G108" s="33"/>
-      <c r="H108" s="33"/>
+      <c r="D108" s="23"/>
+      <c r="E108" s="23"/>
+      <c r="F108" s="23"/>
+      <c r="G108" s="23"/>
+      <c r="H108" s="23"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A109" s="30" t="s">
+      <c r="A109" s="20" t="s">
         <v>298</v>
       </c>
-      <c r="B109" s="30" t="s">
+      <c r="B109" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C109" s="30" t="s">
+      <c r="C109" s="20" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A110" s="30" t="s">
+      <c r="A110" s="20" t="s">
         <v>299</v>
       </c>
-      <c r="B110" s="30" t="s">
+      <c r="B110" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="C110" s="30" t="s">
+      <c r="C110" s="20" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A111" s="30" t="s">
+      <c r="A111" s="20" t="s">
         <v>300</v>
       </c>
-      <c r="B111" s="30" t="s">
+      <c r="B111" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C111" s="30" t="s">
+      <c r="C111" s="20" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A112" s="30" t="s">
+      <c r="A112" s="20" t="s">
         <v>301</v>
       </c>
-      <c r="B112" s="30" t="s">
+      <c r="B112" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="C112" s="30" t="s">
+      <c r="C112" s="20" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A113" s="30" t="s">
+      <c r="A113" s="20" t="s">
         <v>302</v>
       </c>
-      <c r="B113" s="30" t="s">
+      <c r="B113" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C113" s="30" t="s">
+      <c r="C113" s="20" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A114" s="30" t="s">
+      <c r="A114" s="20" t="s">
         <v>303</v>
       </c>
-      <c r="B114" s="30" t="s">
+      <c r="B114" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C114" s="30" t="s">
+      <c r="C114" s="20" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A115" s="33" t="s">
+      <c r="A115" s="23" t="s">
         <v>304</v>
       </c>
-      <c r="B115" s="33" t="s">
+      <c r="B115" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="C115" s="33" t="s">
+      <c r="C115" s="23" t="s">
         <v>199</v>
       </c>
-      <c r="D115" s="33"/>
-      <c r="E115" s="33"/>
-      <c r="F115" s="33"/>
-      <c r="G115" s="33"/>
-      <c r="H115" s="33"/>
+      <c r="D115" s="23"/>
+      <c r="E115" s="23"/>
+      <c r="F115" s="23"/>
+      <c r="G115" s="23"/>
+      <c r="H115" s="23"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A116" s="30" t="s">
+      <c r="A116" s="20" t="s">
         <v>305</v>
       </c>
-      <c r="B116" s="30" t="s">
+      <c r="B116" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C116" s="30" t="s">
+      <c r="C116" s="20" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A117" s="30" t="s">
+      <c r="A117" s="20" t="s">
         <v>306</v>
       </c>
-      <c r="B117" s="30" t="s">
+      <c r="B117" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="C117" s="30" t="s">
+      <c r="C117" s="20" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A118" s="30" t="s">
+      <c r="A118" s="20" t="s">
         <v>307</v>
       </c>
-      <c r="B118" s="30" t="s">
+      <c r="B118" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C118" s="30" t="s">
+      <c r="C118" s="20" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A119" s="30" t="s">
+      <c r="A119" s="20" t="s">
         <v>308</v>
       </c>
-      <c r="B119" s="30" t="s">
+      <c r="B119" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="C119" s="30" t="s">
+      <c r="C119" s="20" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A120" s="30" t="s">
+      <c r="A120" s="20" t="s">
         <v>309</v>
       </c>
-      <c r="B120" s="30" t="s">
+      <c r="B120" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C120" s="30" t="s">
+      <c r="C120" s="20" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A121" s="30" t="s">
+      <c r="A121" s="20" t="s">
         <v>310</v>
       </c>
-      <c r="B121" s="30" t="s">
+      <c r="B121" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C121" s="30" t="s">
+      <c r="C121" s="20" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A122" s="33" t="s">
+      <c r="A122" s="23" t="s">
         <v>311</v>
       </c>
-      <c r="B122" s="33" t="s">
+      <c r="B122" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="C122" s="33" t="s">
+      <c r="C122" s="23" t="s">
         <v>199</v>
       </c>
-      <c r="D122" s="33"/>
-      <c r="E122" s="33"/>
-      <c r="F122" s="33"/>
-      <c r="G122" s="33"/>
-      <c r="H122" s="33"/>
+      <c r="D122" s="23"/>
+      <c r="E122" s="23"/>
+      <c r="F122" s="23"/>
+      <c r="G122" s="23"/>
+      <c r="H122" s="23"/>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A123" s="30" t="s">
+      <c r="A123" s="20" t="s">
         <v>312</v>
       </c>
-      <c r="B123" s="30" t="s">
+      <c r="B123" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C123" s="30" t="s">
+      <c r="C123" s="20" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A124" s="30" t="s">
+      <c r="A124" s="20" t="s">
         <v>313</v>
       </c>
-      <c r="B124" s="30" t="s">
+      <c r="B124" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="C124" s="30" t="s">
+      <c r="C124" s="20" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A125" s="30" t="s">
+      <c r="A125" s="20" t="s">
         <v>314</v>
       </c>
-      <c r="B125" s="30" t="s">
+      <c r="B125" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C125" s="30" t="s">
+      <c r="C125" s="20" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A126" s="30" t="s">
+      <c r="A126" s="20" t="s">
         <v>315</v>
       </c>
-      <c r="B126" s="30" t="s">
+      <c r="B126" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="C126" s="30" t="s">
+      <c r="C126" s="20" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A127" s="30" t="s">
+      <c r="A127" s="20" t="s">
         <v>316</v>
       </c>
-      <c r="B127" s="30" t="s">
+      <c r="B127" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C127" s="30" t="s">
+      <c r="C127" s="20" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A128" s="30" t="s">
+      <c r="A128" s="20" t="s">
         <v>317</v>
       </c>
-      <c r="B128" s="30" t="s">
+      <c r="B128" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C128" s="30" t="s">
+      <c r="C128" s="20" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A129" s="33" t="s">
+      <c r="A129" s="23" t="s">
         <v>318</v>
       </c>
-      <c r="B129" s="33" t="s">
+      <c r="B129" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="C129" s="33" t="s">
+      <c r="C129" s="23" t="s">
         <v>199</v>
       </c>
-      <c r="D129" s="33"/>
-      <c r="E129" s="33"/>
-      <c r="F129" s="33"/>
-      <c r="G129" s="33"/>
-      <c r="H129" s="33"/>
+      <c r="D129" s="23"/>
+      <c r="E129" s="23"/>
+      <c r="F129" s="23"/>
+      <c r="G129" s="23"/>
+      <c r="H129" s="23"/>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A130" s="30" t="s">
+      <c r="A130" s="20" t="s">
         <v>319</v>
       </c>
-      <c r="B130" s="30" t="s">
+      <c r="B130" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C130" s="30" t="s">
+      <c r="C130" s="20" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A131" s="30" t="s">
+      <c r="A131" s="20" t="s">
         <v>320</v>
       </c>
-      <c r="B131" s="30" t="s">
+      <c r="B131" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="C131" s="30" t="s">
+      <c r="C131" s="20" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A132" s="30" t="s">
+      <c r="A132" s="20" t="s">
         <v>321</v>
       </c>
-      <c r="B132" s="30" t="s">
+      <c r="B132" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C132" s="30" t="s">
+      <c r="C132" s="20" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A133" s="30" t="s">
+      <c r="A133" s="20" t="s">
         <v>322</v>
       </c>
-      <c r="B133" s="30" t="s">
+      <c r="B133" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="C133" s="30" t="s">
+      <c r="C133" s="20" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A134" s="30" t="s">
+      <c r="A134" s="20" t="s">
         <v>323</v>
       </c>
-      <c r="B134" s="30" t="s">
+      <c r="B134" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C134" s="30" t="s">
+      <c r="C134" s="20" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A135" s="30" t="s">
+      <c r="A135" s="20" t="s">
         <v>324</v>
       </c>
-      <c r="B135" s="30" t="s">
+      <c r="B135" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C135" s="30" t="s">
+      <c r="C135" s="20" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A136" s="33" t="s">
+      <c r="A136" s="23" t="s">
         <v>325</v>
       </c>
-      <c r="B136" s="33" t="s">
+      <c r="B136" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="C136" s="33" t="s">
+      <c r="C136" s="23" t="s">
         <v>199</v>
       </c>
-      <c r="D136" s="33"/>
-      <c r="E136" s="33"/>
-      <c r="F136" s="33"/>
-      <c r="G136" s="33"/>
-      <c r="H136" s="33"/>
+      <c r="D136" s="23"/>
+      <c r="E136" s="23"/>
+      <c r="F136" s="23"/>
+      <c r="G136" s="23"/>
+      <c r="H136" s="23"/>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A137" s="30" t="s">
+      <c r="A137" s="20" t="s">
         <v>326</v>
       </c>
-      <c r="B137" s="30" t="s">
+      <c r="B137" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C137" s="30" t="s">
+      <c r="C137" s="20" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A138" s="30" t="s">
+      <c r="A138" s="20" t="s">
         <v>327</v>
       </c>
-      <c r="B138" s="30" t="s">
+      <c r="B138" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="C138" s="30" t="s">
+      <c r="C138" s="20" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A139" s="30" t="s">
+      <c r="A139" s="20" t="s">
         <v>328</v>
       </c>
-      <c r="B139" s="30" t="s">
+      <c r="B139" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C139" s="30" t="s">
+      <c r="C139" s="20" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A140" s="30" t="s">
+      <c r="A140" s="20" t="s">
         <v>329</v>
       </c>
-      <c r="B140" s="30" t="s">
+      <c r="B140" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="C140" s="30" t="s">
+      <c r="C140" s="20" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A141" s="30" t="s">
+      <c r="A141" s="20" t="s">
         <v>330</v>
       </c>
-      <c r="B141" s="30" t="s">
+      <c r="B141" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C141" s="30" t="s">
+      <c r="C141" s="20" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A142" s="30" t="s">
+      <c r="A142" s="20" t="s">
         <v>331</v>
       </c>
-      <c r="B142" s="30" t="s">
+      <c r="B142" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C142" s="30" t="s">
+      <c r="C142" s="20" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A143" s="33" t="s">
+      <c r="A143" s="23" t="s">
         <v>332</v>
       </c>
-      <c r="B143" s="33" t="s">
+      <c r="B143" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="C143" s="33" t="s">
+      <c r="C143" s="23" t="s">
         <v>199</v>
       </c>
-      <c r="D143" s="33"/>
-      <c r="E143" s="33"/>
-      <c r="F143" s="33"/>
-      <c r="G143" s="33"/>
-      <c r="H143" s="33"/>
+      <c r="D143" s="23"/>
+      <c r="E143" s="23"/>
+      <c r="F143" s="23"/>
+      <c r="G143" s="23"/>
+      <c r="H143" s="23"/>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A144" s="30" t="s">
+      <c r="A144" s="20" t="s">
         <v>333</v>
       </c>
-      <c r="B144" s="30" t="s">
+      <c r="B144" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C144" s="30" t="s">
+      <c r="C144" s="20" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A145" s="30" t="s">
+      <c r="A145" s="20" t="s">
         <v>334</v>
       </c>
-      <c r="B145" s="30" t="s">
+      <c r="B145" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="C145" s="30" t="s">
+      <c r="C145" s="20" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A146" s="30" t="s">
+      <c r="A146" s="20" t="s">
         <v>335</v>
       </c>
-      <c r="B146" s="30" t="s">
+      <c r="B146" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C146" s="30" t="s">
+      <c r="C146" s="20" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A147" s="30" t="s">
+      <c r="A147" s="20" t="s">
         <v>336</v>
       </c>
-      <c r="B147" s="30" t="s">
+      <c r="B147" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="C147" s="30" t="s">
+      <c r="C147" s="20" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A148" s="30" t="s">
+      <c r="A148" s="20" t="s">
         <v>337</v>
       </c>
-      <c r="B148" s="30" t="s">
+      <c r="B148" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C148" s="30" t="s">
+      <c r="C148" s="20" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A149" s="30" t="s">
+      <c r="A149" s="20" t="s">
         <v>338</v>
       </c>
-      <c r="B149" s="30" t="s">
+      <c r="B149" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C149" s="30" t="s">
+      <c r="C149" s="20" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A150" s="33" t="s">
+      <c r="A150" s="23" t="s">
         <v>339</v>
       </c>
-      <c r="B150" s="33" t="s">
+      <c r="B150" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="C150" s="33" t="s">
+      <c r="C150" s="23" t="s">
         <v>199</v>
       </c>
-      <c r="D150" s="33"/>
-      <c r="E150" s="33"/>
-      <c r="F150" s="33"/>
-      <c r="G150" s="33"/>
-      <c r="H150" s="33"/>
+      <c r="D150" s="23"/>
+      <c r="E150" s="23"/>
+      <c r="F150" s="23"/>
+      <c r="G150" s="23"/>
+      <c r="H150" s="23"/>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A151" s="30" t="s">
+      <c r="A151" s="20" t="s">
         <v>340</v>
       </c>
-      <c r="B151" s="30" t="s">
+      <c r="B151" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C151" s="30" t="s">
+      <c r="C151" s="20" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A152" s="30" t="s">
+      <c r="A152" s="20" t="s">
         <v>341</v>
       </c>
-      <c r="B152" s="30" t="s">
+      <c r="B152" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="C152" s="30" t="s">
+      <c r="C152" s="20" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A153" s="30" t="s">
+      <c r="A153" s="20" t="s">
         <v>342</v>
       </c>
-      <c r="B153" s="30" t="s">
+      <c r="B153" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C153" s="30" t="s">
+      <c r="C153" s="20" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A154" s="30" t="s">
+      <c r="A154" s="20" t="s">
         <v>343</v>
       </c>
-      <c r="B154" s="30" t="s">
+      <c r="B154" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="C154" s="30" t="s">
+      <c r="C154" s="20" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A155" s="30" t="s">
+      <c r="A155" s="20" t="s">
         <v>344</v>
       </c>
-      <c r="B155" s="30" t="s">
+      <c r="B155" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C155" s="30" t="s">
+      <c r="C155" s="20" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A156" s="30" t="s">
+      <c r="A156" s="20" t="s">
         <v>345</v>
       </c>
-      <c r="B156" s="30" t="s">
+      <c r="B156" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C156" s="30" t="s">
+      <c r="C156" s="20" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A157" s="33" t="s">
+      <c r="A157" s="23" t="s">
         <v>346</v>
       </c>
-      <c r="B157" s="33" t="s">
+      <c r="B157" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="C157" s="33" t="s">
+      <c r="C157" s="23" t="s">
         <v>199</v>
       </c>
-      <c r="D157" s="33"/>
-      <c r="E157" s="33"/>
-      <c r="F157" s="33"/>
-      <c r="G157" s="33"/>
-      <c r="H157" s="33"/>
+      <c r="D157" s="23"/>
+      <c r="E157" s="23"/>
+      <c r="F157" s="23"/>
+      <c r="G157" s="23"/>
+      <c r="H157" s="23"/>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A158" s="30" t="s">
+      <c r="A158" s="20" t="s">
         <v>347</v>
       </c>
-      <c r="B158" s="30" t="s">
+      <c r="B158" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C158" s="30" t="s">
+      <c r="C158" s="20" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A159" s="30" t="s">
+      <c r="A159" s="20" t="s">
         <v>348</v>
       </c>
-      <c r="B159" s="30" t="s">
+      <c r="B159" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="C159" s="30" t="s">
+      <c r="C159" s="20" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A160" s="30" t="s">
+      <c r="A160" s="20" t="s">
         <v>349</v>
       </c>
-      <c r="B160" s="30" t="s">
+      <c r="B160" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C160" s="30" t="s">
+      <c r="C160" s="20" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A161" s="30" t="s">
+      <c r="A161" s="20" t="s">
         <v>350</v>
       </c>
-      <c r="B161" s="30" t="s">
+      <c r="B161" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="C161" s="30" t="s">
+      <c r="C161" s="20" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A162" s="30" t="s">
+      <c r="A162" s="20" t="s">
         <v>351</v>
       </c>
-      <c r="B162" s="30" t="s">
+      <c r="B162" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C162" s="30" t="s">
+      <c r="C162" s="20" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A163" s="30" t="s">
+      <c r="A163" s="20" t="s">
         <v>352</v>
       </c>
-      <c r="B163" s="30" t="s">
+      <c r="B163" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C163" s="30" t="s">
+      <c r="C163" s="20" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A164" s="33" t="s">
+      <c r="A164" s="23" t="s">
         <v>353</v>
       </c>
-      <c r="B164" s="33" t="s">
+      <c r="B164" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="C164" s="33" t="s">
+      <c r="C164" s="23" t="s">
         <v>199</v>
       </c>
-      <c r="D164" s="33"/>
-      <c r="E164" s="33"/>
-      <c r="F164" s="33"/>
-      <c r="G164" s="33"/>
-      <c r="H164" s="33"/>
+      <c r="D164" s="23"/>
+      <c r="E164" s="23"/>
+      <c r="F164" s="23"/>
+      <c r="G164" s="23"/>
+      <c r="H164" s="23"/>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A165" s="30" t="s">
+      <c r="A165" s="20" t="s">
         <v>354</v>
       </c>
-      <c r="B165" s="30" t="s">
+      <c r="B165" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C165" s="30" t="s">
+      <c r="C165" s="20" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A166" s="30" t="s">
+      <c r="A166" s="20" t="s">
         <v>355</v>
       </c>
-      <c r="B166" s="30" t="s">
+      <c r="B166" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="C166" s="30" t="s">
+      <c r="C166" s="20" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A167" s="30" t="s">
+      <c r="A167" s="20" t="s">
         <v>356</v>
       </c>
-      <c r="B167" s="30" t="s">
+      <c r="B167" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C167" s="30" t="s">
+      <c r="C167" s="20" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A168" s="30" t="s">
+      <c r="A168" s="20" t="s">
         <v>357</v>
       </c>
-      <c r="B168" s="30" t="s">
+      <c r="B168" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="C168" s="30" t="s">
+      <c r="C168" s="20" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A169" s="30" t="s">
+      <c r="A169" s="20" t="s">
         <v>358</v>
       </c>
-      <c r="B169" s="30" t="s">
+      <c r="B169" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C169" s="30" t="s">
+      <c r="C169" s="20" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A170" s="30" t="s">
+      <c r="A170" s="20" t="s">
         <v>359</v>
       </c>
-      <c r="B170" s="30" t="s">
+      <c r="B170" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C170" s="30" t="s">
+      <c r="C170" s="20" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A171" s="33" t="s">
+      <c r="A171" s="23" t="s">
         <v>360</v>
       </c>
-      <c r="B171" s="33" t="s">
+      <c r="B171" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="C171" s="33" t="s">
+      <c r="C171" s="23" t="s">
         <v>199</v>
       </c>
-      <c r="D171" s="33"/>
-      <c r="E171" s="33"/>
-      <c r="F171" s="33"/>
-      <c r="G171" s="33"/>
-      <c r="H171" s="33"/>
+      <c r="D171" s="23"/>
+      <c r="E171" s="23"/>
+      <c r="F171" s="23"/>
+      <c r="G171" s="23"/>
+      <c r="H171" s="23"/>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A172" s="30" t="s">
+      <c r="A172" s="20" t="s">
         <v>361</v>
       </c>
-      <c r="B172" s="30" t="s">
+      <c r="B172" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C172" s="30" t="s">
+      <c r="C172" s="20" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A173" s="30" t="s">
+      <c r="A173" s="20" t="s">
         <v>362</v>
       </c>
-      <c r="B173" s="30" t="s">
+      <c r="B173" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="C173" s="30" t="s">
+      <c r="C173" s="20" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A174" s="30" t="s">
+      <c r="A174" s="20" t="s">
         <v>363</v>
       </c>
-      <c r="B174" s="30" t="s">
+      <c r="B174" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C174" s="30" t="s">
+      <c r="C174" s="20" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A175" s="30" t="s">
+      <c r="A175" s="20" t="s">
         <v>364</v>
       </c>
-      <c r="B175" s="30" t="s">
+      <c r="B175" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="C175" s="30" t="s">
+      <c r="C175" s="20" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A176" s="30" t="s">
+      <c r="A176" s="20" t="s">
         <v>365</v>
       </c>
-      <c r="B176" s="30" t="s">
+      <c r="B176" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C176" s="30" t="s">
+      <c r="C176" s="20" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A177" s="30" t="s">
+      <c r="A177" s="20" t="s">
         <v>366</v>
       </c>
-      <c r="B177" s="30" t="s">
+      <c r="B177" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C177" s="30" t="s">
+      <c r="C177" s="20" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A178" s="33" t="s">
+      <c r="A178" s="23" t="s">
         <v>367</v>
       </c>
-      <c r="B178" s="33" t="s">
+      <c r="B178" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="C178" s="33" t="s">
+      <c r="C178" s="23" t="s">
         <v>199</v>
       </c>
-      <c r="D178" s="33"/>
-      <c r="E178" s="33"/>
-      <c r="F178" s="33"/>
-      <c r="G178" s="33"/>
-      <c r="H178" s="33"/>
+      <c r="D178" s="23"/>
+      <c r="E178" s="23"/>
+      <c r="F178" s="23"/>
+      <c r="G178" s="23"/>
+      <c r="H178" s="23"/>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A179" s="30" t="s">
+      <c r="A179" s="20" t="s">
         <v>368</v>
       </c>
-      <c r="B179" s="30" t="s">
+      <c r="B179" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C179" s="30" t="s">
+      <c r="C179" s="20" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A180" s="30" t="s">
+      <c r="A180" s="20" t="s">
         <v>369</v>
       </c>
-      <c r="B180" s="30" t="s">
+      <c r="B180" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="C180" s="30" t="s">
+      <c r="C180" s="20" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A181" s="30" t="s">
+      <c r="A181" s="20" t="s">
         <v>370</v>
       </c>
-      <c r="B181" s="30" t="s">
+      <c r="B181" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C181" s="30" t="s">
+      <c r="C181" s="20" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A182" s="30" t="s">
+      <c r="A182" s="20" t="s">
         <v>371</v>
       </c>
-      <c r="B182" s="30" t="s">
+      <c r="B182" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="C182" s="30" t="s">
+      <c r="C182" s="20" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A183" s="30" t="s">
+      <c r="A183" s="20" t="s">
         <v>372</v>
       </c>
-      <c r="B183" s="30" t="s">
+      <c r="B183" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C183" s="30" t="s">
+      <c r="C183" s="20" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A184" s="30" t="s">
+      <c r="A184" s="20" t="s">
         <v>373</v>
       </c>
-      <c r="B184" s="30" t="s">
+      <c r="B184" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C184" s="30" t="s">
+      <c r="C184" s="20" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A185" s="33" t="s">
+      <c r="A185" s="23" t="s">
         <v>374</v>
       </c>
-      <c r="B185" s="33" t="s">
+      <c r="B185" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="C185" s="33" t="s">
+      <c r="C185" s="23" t="s">
         <v>199</v>
       </c>
-      <c r="D185" s="33"/>
-      <c r="E185" s="33"/>
-      <c r="F185" s="33"/>
-      <c r="G185" s="33"/>
-      <c r="H185" s="33"/>
+      <c r="D185" s="23"/>
+      <c r="E185" s="23"/>
+      <c r="F185" s="23"/>
+      <c r="G185" s="23"/>
+      <c r="H185" s="23"/>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A186" s="30" t="s">
+      <c r="A186" s="20" t="s">
         <v>375</v>
       </c>
-      <c r="B186" s="30" t="s">
+      <c r="B186" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C186" s="30" t="s">
+      <c r="C186" s="20" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A187" s="30" t="s">
+      <c r="A187" s="20" t="s">
         <v>376</v>
       </c>
-      <c r="B187" s="30" t="s">
+      <c r="B187" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="C187" s="30" t="s">
+      <c r="C187" s="20" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A188" s="30" t="s">
+      <c r="A188" s="20" t="s">
         <v>377</v>
       </c>
-      <c r="B188" s="30" t="s">
+      <c r="B188" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C188" s="30" t="s">
+      <c r="C188" s="20" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A189" s="30" t="s">
+      <c r="A189" s="20" t="s">
         <v>378</v>
       </c>
-      <c r="B189" s="30" t="s">
+      <c r="B189" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="C189" s="30" t="s">
+      <c r="C189" s="20" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A190" s="30" t="s">
+      <c r="A190" s="20" t="s">
         <v>379</v>
       </c>
-      <c r="B190" s="30" t="s">
+      <c r="B190" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C190" s="30" t="s">
+      <c r="C190" s="20" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A191" s="30" t="s">
+      <c r="A191" s="20" t="s">
         <v>380</v>
       </c>
-      <c r="B191" s="30" t="s">
+      <c r="B191" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C191" s="30" t="s">
+      <c r="C191" s="20" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A192" s="33" t="s">
+      <c r="A192" s="23" t="s">
         <v>381</v>
       </c>
-      <c r="B192" s="33" t="s">
+      <c r="B192" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="C192" s="33" t="s">
+      <c r="C192" s="23" t="s">
         <v>199</v>
       </c>
-      <c r="D192" s="33"/>
-      <c r="E192" s="33"/>
-      <c r="F192" s="33"/>
-      <c r="G192" s="33"/>
-      <c r="H192" s="33"/>
+      <c r="D192" s="23"/>
+      <c r="E192" s="23"/>
+      <c r="F192" s="23"/>
+      <c r="G192" s="23"/>
+      <c r="H192" s="23"/>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A193" s="30" t="s">
+      <c r="A193" s="20" t="s">
         <v>382</v>
       </c>
-      <c r="B193" s="30" t="s">
+      <c r="B193" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C193" s="30" t="s">
+      <c r="C193" s="20" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A194" s="30" t="s">
+      <c r="A194" s="20" t="s">
         <v>383</v>
       </c>
-      <c r="B194" s="30" t="s">
+      <c r="B194" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="C194" s="30" t="s">
+      <c r="C194" s="20" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A195" s="30" t="s">
+      <c r="A195" s="20" t="s">
         <v>384</v>
       </c>
-      <c r="B195" s="30" t="s">
+      <c r="B195" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C195" s="30" t="s">
+      <c r="C195" s="20" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A196" s="30" t="s">
+      <c r="A196" s="20" t="s">
         <v>385</v>
       </c>
-      <c r="B196" s="30" t="s">
+      <c r="B196" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="C196" s="30" t="s">
+      <c r="C196" s="20" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A197" s="30" t="s">
+      <c r="A197" s="20" t="s">
         <v>386</v>
       </c>
-      <c r="B197" s="30" t="s">
+      <c r="B197" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C197" s="30" t="s">
+      <c r="C197" s="20" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A198" s="30" t="s">
+      <c r="A198" s="20" t="s">
         <v>387</v>
       </c>
-      <c r="B198" s="30" t="s">
+      <c r="B198" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C198" s="30" t="s">
+      <c r="C198" s="20" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A199" s="33" t="s">
+      <c r="A199" s="23" t="s">
         <v>388</v>
       </c>
-      <c r="B199" s="33" t="s">
+      <c r="B199" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="C199" s="33" t="s">
+      <c r="C199" s="23" t="s">
         <v>199</v>
       </c>
-      <c r="D199" s="33"/>
-      <c r="E199" s="33"/>
-      <c r="F199" s="33"/>
-      <c r="G199" s="33"/>
-      <c r="H199" s="33"/>
+      <c r="D199" s="23"/>
+      <c r="E199" s="23"/>
+      <c r="F199" s="23"/>
+      <c r="G199" s="23"/>
+      <c r="H199" s="23"/>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A200" s="30" t="s">
+      <c r="A200" s="20" t="s">
         <v>389</v>
       </c>
-      <c r="B200" s="30" t="s">
+      <c r="B200" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C200" s="30" t="s">
+      <c r="C200" s="20" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A201" s="30" t="s">
+      <c r="A201" s="20" t="s">
         <v>390</v>
       </c>
-      <c r="B201" s="30" t="s">
+      <c r="B201" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="C201" s="30" t="s">
+      <c r="C201" s="20" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A202" s="30" t="s">
+      <c r="A202" s="20" t="s">
         <v>391</v>
       </c>
-      <c r="B202" s="30" t="s">
+      <c r="B202" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C202" s="30" t="s">
+      <c r="C202" s="20" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A203" s="30" t="s">
+      <c r="A203" s="20" t="s">
         <v>392</v>
       </c>
-      <c r="B203" s="30" t="s">
+      <c r="B203" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="C203" s="30" t="s">
+      <c r="C203" s="20" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A204" s="30" t="s">
+      <c r="A204" s="20" t="s">
         <v>393</v>
       </c>
-      <c r="B204" s="30" t="s">
+      <c r="B204" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C204" s="30" t="s">
+      <c r="C204" s="20" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A205" s="30" t="s">
+      <c r="A205" s="20" t="s">
         <v>394</v>
       </c>
-      <c r="B205" s="30" t="s">
+      <c r="B205" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C205" s="30" t="s">
+      <c r="C205" s="20" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A206" s="33" t="s">
+      <c r="A206" s="23" t="s">
         <v>395</v>
       </c>
-      <c r="B206" s="33" t="s">
+      <c r="B206" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="C206" s="33" t="s">
+      <c r="C206" s="23" t="s">
         <v>199</v>
       </c>
-      <c r="D206" s="33"/>
-      <c r="E206" s="33"/>
-      <c r="F206" s="33"/>
-      <c r="G206" s="33"/>
-      <c r="H206" s="33"/>
+      <c r="D206" s="23"/>
+      <c r="E206" s="23"/>
+      <c r="F206" s="23"/>
+      <c r="G206" s="23"/>
+      <c r="H206" s="23"/>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A207" s="30" t="s">
+      <c r="A207" s="20" t="s">
         <v>396</v>
       </c>
-      <c r="B207" s="30" t="s">
+      <c r="B207" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C207" s="30" t="s">
+      <c r="C207" s="20" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A208" s="30" t="s">
+      <c r="A208" s="20" t="s">
         <v>397</v>
       </c>
-      <c r="B208" s="30" t="s">
+      <c r="B208" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="C208" s="30" t="s">
+      <c r="C208" s="20" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A209" s="30" t="s">
+      <c r="A209" s="20" t="s">
         <v>398</v>
       </c>
-      <c r="B209" s="30" t="s">
+      <c r="B209" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C209" s="30" t="s">
+      <c r="C209" s="20" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A210" s="30" t="s">
+      <c r="A210" s="20" t="s">
         <v>399</v>
       </c>
-      <c r="B210" s="30" t="s">
+      <c r="B210" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="C210" s="30" t="s">
+      <c r="C210" s="20" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A211" s="30" t="s">
+      <c r="A211" s="20" t="s">
         <v>400</v>
       </c>
-      <c r="B211" s="30" t="s">
+      <c r="B211" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C211" s="30" t="s">
+      <c r="C211" s="20" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A212" s="30" t="s">
+      <c r="A212" s="20" t="s">
         <v>401</v>
       </c>
-      <c r="B212" s="30" t="s">
+      <c r="B212" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C212" s="30" t="s">
+      <c r="C212" s="20" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A213" s="33" t="s">
+      <c r="A213" s="23" t="s">
         <v>402</v>
       </c>
-      <c r="B213" s="33" t="s">
+      <c r="B213" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="C213" s="33" t="s">
+      <c r="C213" s="23" t="s">
         <v>199</v>
       </c>
-      <c r="D213" s="33"/>
-      <c r="E213" s="33"/>
-      <c r="F213" s="33"/>
-      <c r="G213" s="33"/>
-      <c r="H213" s="33"/>
+      <c r="D213" s="23"/>
+      <c r="E213" s="23"/>
+      <c r="F213" s="23"/>
+      <c r="G213" s="23"/>
+      <c r="H213" s="23"/>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A214" s="30" t="s">
+      <c r="A214" s="20" t="s">
         <v>403</v>
       </c>
-      <c r="B214" s="30" t="s">
+      <c r="B214" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C214" s="30" t="s">
+      <c r="C214" s="20" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A215" s="30" t="s">
+      <c r="A215" s="20" t="s">
         <v>404</v>
       </c>
-      <c r="B215" s="30" t="s">
+      <c r="B215" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="C215" s="30" t="s">
+      <c r="C215" s="20" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A216" s="30" t="s">
+      <c r="A216" s="20" t="s">
         <v>405</v>
       </c>
-      <c r="B216" s="30" t="s">
+      <c r="B216" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C216" s="30" t="s">
+      <c r="C216" s="20" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A217" s="30" t="s">
+      <c r="A217" s="20" t="s">
         <v>406</v>
       </c>
-      <c r="B217" s="30" t="s">
+      <c r="B217" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="C217" s="30" t="s">
+      <c r="C217" s="20" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A218" s="30" t="s">
+      <c r="A218" s="20" t="s">
         <v>407</v>
       </c>
-      <c r="B218" s="30" t="s">
+      <c r="B218" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C218" s="30" t="s">
+      <c r="C218" s="20" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A219" s="30" t="s">
+      <c r="A219" s="20" t="s">
         <v>408</v>
       </c>
-      <c r="B219" s="30" t="s">
+      <c r="B219" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C219" s="30" t="s">
+      <c r="C219" s="20" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A220" s="33" t="s">
+      <c r="A220" s="23" t="s">
         <v>409</v>
       </c>
-      <c r="B220" s="33" t="s">
+      <c r="B220" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="C220" s="33" t="s">
+      <c r="C220" s="23" t="s">
         <v>199</v>
       </c>
-      <c r="D220" s="33"/>
-      <c r="E220" s="33"/>
-      <c r="F220" s="33"/>
-      <c r="G220" s="33"/>
-      <c r="H220" s="33"/>
+      <c r="D220" s="23"/>
+      <c r="E220" s="23"/>
+      <c r="F220" s="23"/>
+      <c r="G220" s="23"/>
+      <c r="H220" s="23"/>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A221" s="30" t="s">
+      <c r="A221" s="20" t="s">
         <v>410</v>
       </c>
-      <c r="B221" s="30" t="s">
+      <c r="B221" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C221" s="30" t="s">
+      <c r="C221" s="20" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A222" s="30" t="s">
+      <c r="A222" s="20" t="s">
         <v>411</v>
       </c>
-      <c r="B222" s="30" t="s">
+      <c r="B222" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="C222" s="30" t="s">
+      <c r="C222" s="20" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A223" s="30" t="s">
+      <c r="A223" s="20" t="s">
         <v>412</v>
       </c>
-      <c r="B223" s="30" t="s">
+      <c r="B223" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C223" s="30" t="s">
+      <c r="C223" s="20" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A224" s="30" t="s">
+      <c r="A224" s="20" t="s">
         <v>413</v>
       </c>
-      <c r="B224" s="30" t="s">
+      <c r="B224" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="C224" s="30" t="s">
+      <c r="C224" s="20" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A225" s="30" t="s">
+      <c r="A225" s="20" t="s">
         <v>414</v>
       </c>
-      <c r="B225" s="30" t="s">
+      <c r="B225" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C225" s="30" t="s">
+      <c r="C225" s="20" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A226" s="30" t="s">
+      <c r="A226" s="20" t="s">
         <v>415</v>
       </c>
-      <c r="B226" s="30" t="s">
+      <c r="B226" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C226" s="30" t="s">
+      <c r="C226" s="20" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A227" s="33" t="s">
+      <c r="A227" s="23" t="s">
         <v>416</v>
       </c>
-      <c r="B227" s="33" t="s">
+      <c r="B227" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="C227" s="33" t="s">
+      <c r="C227" s="23" t="s">
         <v>199</v>
       </c>
-      <c r="D227" s="33"/>
-      <c r="E227" s="33"/>
-      <c r="F227" s="33"/>
-      <c r="G227" s="33"/>
-      <c r="H227" s="33"/>
+      <c r="D227" s="23"/>
+      <c r="E227" s="23"/>
+      <c r="F227" s="23"/>
+      <c r="G227" s="23"/>
+      <c r="H227" s="23"/>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A228" s="30" t="s">
+      <c r="A228" s="20" t="s">
         <v>417</v>
       </c>
-      <c r="B228" s="30" t="s">
+      <c r="B228" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C228" s="30" t="s">
+      <c r="C228" s="20" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A229" s="30" t="s">
+      <c r="A229" s="20" t="s">
         <v>418</v>
       </c>
-      <c r="B229" s="30" t="s">
+      <c r="B229" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="C229" s="30" t="s">
+      <c r="C229" s="20" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A230" s="30" t="s">
+      <c r="A230" s="20" t="s">
         <v>419</v>
       </c>
-      <c r="B230" s="30" t="s">
+      <c r="B230" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C230" s="30" t="s">
+      <c r="C230" s="20" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A231" s="30" t="s">
+      <c r="A231" s="20" t="s">
         <v>420</v>
       </c>
-      <c r="B231" s="30" t="s">
+      <c r="B231" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="C231" s="30" t="s">
+      <c r="C231" s="20" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A232" s="30" t="s">
+      <c r="A232" s="20" t="s">
         <v>421</v>
       </c>
-      <c r="B232" s="30" t="s">
+      <c r="B232" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C232" s="30" t="s">
+      <c r="C232" s="20" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A233" s="30" t="s">
+      <c r="A233" s="20" t="s">
         <v>422</v>
       </c>
-      <c r="B233" s="30" t="s">
+      <c r="B233" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C233" s="30" t="s">
+      <c r="C233" s="20" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A234" s="33" t="s">
+      <c r="A234" s="23" t="s">
         <v>423</v>
       </c>
-      <c r="B234" s="33" t="s">
+      <c r="B234" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="C234" s="33" t="s">
+      <c r="C234" s="23" t="s">
         <v>199</v>
       </c>
-      <c r="D234" s="33"/>
-      <c r="E234" s="33"/>
-      <c r="F234" s="33"/>
-      <c r="G234" s="33"/>
-      <c r="H234" s="33"/>
+      <c r="D234" s="23"/>
+      <c r="E234" s="23"/>
+      <c r="F234" s="23"/>
+      <c r="G234" s="23"/>
+      <c r="H234" s="23"/>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A235" s="30" t="s">
+      <c r="A235" s="20" t="s">
         <v>424</v>
       </c>
-      <c r="B235" s="30" t="s">
+      <c r="B235" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C235" s="30" t="s">
+      <c r="C235" s="20" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A236" s="30" t="s">
+      <c r="A236" s="20" t="s">
         <v>425</v>
       </c>
-      <c r="B236" s="30" t="s">
+      <c r="B236" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="C236" s="30" t="s">
+      <c r="C236" s="20" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A237" s="30" t="s">
+      <c r="A237" s="20" t="s">
         <v>426</v>
       </c>
-      <c r="B237" s="30" t="s">
+      <c r="B237" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C237" s="30" t="s">
+      <c r="C237" s="20" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A238" s="30" t="s">
+      <c r="A238" s="20" t="s">
         <v>427</v>
       </c>
-      <c r="B238" s="30" t="s">
+      <c r="B238" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="C238" s="30" t="s">
+      <c r="C238" s="20" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A239" s="30" t="s">
+      <c r="A239" s="20" t="s">
         <v>428</v>
       </c>
-      <c r="B239" s="30" t="s">
+      <c r="B239" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C239" s="30" t="s">
+      <c r="C239" s="20" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A240" s="30" t="s">
+      <c r="A240" s="20" t="s">
         <v>429</v>
       </c>
-      <c r="B240" s="30" t="s">
+      <c r="B240" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C240" s="30" t="s">
+      <c r="C240" s="20" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A241" s="33" t="s">
+      <c r="A241" s="23" t="s">
         <v>430</v>
       </c>
-      <c r="B241" s="33" t="s">
+      <c r="B241" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="C241" s="33" t="s">
+      <c r="C241" s="23" t="s">
         <v>199</v>
       </c>
-      <c r="D241" s="33"/>
-      <c r="E241" s="33"/>
-      <c r="F241" s="33"/>
-      <c r="G241" s="33"/>
-      <c r="H241" s="33"/>
+      <c r="D241" s="23"/>
+      <c r="E241" s="23"/>
+      <c r="F241" s="23"/>
+      <c r="G241" s="23"/>
+      <c r="H241" s="23"/>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A242" s="30" t="s">
+      <c r="A242" s="20" t="s">
         <v>431</v>
       </c>
-      <c r="B242" s="30" t="s">
+      <c r="B242" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C242" s="30" t="s">
+      <c r="C242" s="20" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A243" s="30" t="s">
+      <c r="A243" s="20" t="s">
         <v>432</v>
       </c>
-      <c r="B243" s="30" t="s">
+      <c r="B243" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="C243" s="30" t="s">
+      <c r="C243" s="20" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A244" s="30" t="s">
+      <c r="A244" s="20" t="s">
         <v>433</v>
       </c>
-      <c r="B244" s="30" t="s">
+      <c r="B244" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C244" s="30" t="s">
+      <c r="C244" s="20" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A245" s="30" t="s">
+      <c r="A245" s="20" t="s">
         <v>434</v>
       </c>
-      <c r="B245" s="30" t="s">
+      <c r="B245" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="C245" s="30" t="s">
+      <c r="C245" s="20" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A246" s="30" t="s">
+      <c r="A246" s="20" t="s">
         <v>435</v>
       </c>
-      <c r="B246" s="30" t="s">
+      <c r="B246" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C246" s="30" t="s">
+      <c r="C246" s="20" t="s">
         <v>47</v>
       </c>
     </row>
@@ -6511,8 +6562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -6524,14 +6575,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="27" t="s">
         <v>436</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
@@ -6553,19 +6604,23 @@
         <v>178</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A4" s="17" t="s">
         <v>441</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>442</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
+      <c r="C4" s="35" t="s">
+        <v>580</v>
+      </c>
+      <c r="D4" s="36">
+        <v>46029</v>
+      </c>
       <c r="E4" s="18" t="s">
         <v>443</v>
       </c>
-      <c r="F4" s="34"/>
+      <c r="F4" s="24"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
@@ -6950,7 +7005,7 @@
       </c>
       <c r="B35">
         <f>COUNTIF(C4:C30,"✓")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -6959,7 +7014,7 @@
       </c>
       <c r="B36" s="19">
         <f>B35/B34</f>
-        <v>0</v>
+        <v>3.7037037037037035E-2</v>
       </c>
     </row>
   </sheetData>
@@ -6985,20 +7040,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="27" t="s">
         <v>508</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
     </row>
     <row r="3" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="31" t="s">
         <v>509</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -7048,12 +7103,12 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="31" t="s">
         <v>523</v>
       </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -7089,12 +7144,12 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="26" t="s">
+      <c r="A14" s="31" t="s">
         <v>532</v>
       </c>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -7153,12 +7208,12 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="26" t="s">
+      <c r="A20" s="31" t="s">
         <v>549</v>
       </c>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -7205,12 +7260,12 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A26" s="26" t="s">
+      <c r="A26" s="31" t="s">
         <v>562</v>
       </c>
-      <c r="B26" s="21"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">

--- a/AI_Infra学习计划_8个月.xlsx
+++ b/AI_Infra学习计划_8个月.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Python\CUDA\cuda-learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18FF012B-B977-438D-8482-24E0B723D4E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC275366-526B-49DD-8928-2A5A131E3B44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="67080" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1142" uniqueCount="584">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="592">
   <si>
     <t>AI Infrastructure推理优化学习计划</t>
   </si>
@@ -1816,13 +1816,54 @@
     <t>矩阵加法运行成功</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
+  <si>
+    <t>5小时</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>6小时</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>矩阵加法</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>CUDA工具函数
+错误处理示例</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>理解2D Grid配置
+能计算2D索引
+矩阵加法运行成功
+理解dim3的用法
+验证了结果正确性</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>理解CUDA错误处理
+会使用CUDA_CHECK宏
+所有代码添加错误检查
+完整项目代码完成
+技术博客撰写完成
+博客发布成功
+GitHub项目更新</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目+博客完成</t>
+  </si>
+  <si>
+    <t>笔记完成</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="13" x14ac:knownFonts="1">
     <font>
@@ -1987,7 +2028,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2049,16 +2090,25 @@
     <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2068,12 +2118,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2394,16 +2438,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
     </row>
     <row r="3" spans="1:8" ht="17.5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -2701,24 +2745,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
     </row>
     <row r="3" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="28" t="s">
+      <c r="B3" s="29"/>
+      <c r="C3" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="D3" s="26"/>
+      <c r="D3" s="29"/>
       <c r="E3" s="10" t="s">
         <v>64</v>
       </c>
@@ -2776,23 +2820,23 @@
       <c r="A12" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
     </row>
     <row r="14" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="30" t="s">
+      <c r="A14" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="B14" s="26"/>
-      <c r="C14" s="28" t="s">
+      <c r="B14" s="29"/>
+      <c r="C14" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="D14" s="26"/>
+      <c r="D14" s="29"/>
       <c r="E14" s="10" t="s">
         <v>79</v>
       </c>
@@ -2850,23 +2894,23 @@
       <c r="A23" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="29" t="s">
+      <c r="B23" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
     </row>
     <row r="25" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A25" s="30" t="s">
+      <c r="A25" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="B25" s="26"/>
-      <c r="C25" s="28" t="s">
+      <c r="B25" s="29"/>
+      <c r="C25" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="D25" s="26"/>
+      <c r="D25" s="29"/>
       <c r="E25" s="10" t="s">
         <v>79</v>
       </c>
@@ -2924,23 +2968,23 @@
       <c r="A34" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B34" s="29" t="s">
+      <c r="B34" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="C34" s="26"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="26"/>
-      <c r="F34" s="26"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="29"/>
     </row>
     <row r="36" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A36" s="30" t="s">
+      <c r="A36" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="B36" s="26"/>
-      <c r="C36" s="28" t="s">
+      <c r="B36" s="29"/>
+      <c r="C36" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="D36" s="26"/>
+      <c r="D36" s="29"/>
       <c r="E36" s="10" t="s">
         <v>64</v>
       </c>
@@ -2998,23 +3042,23 @@
       <c r="A45" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B45" s="29" t="s">
+      <c r="B45" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="C45" s="26"/>
-      <c r="D45" s="26"/>
-      <c r="E45" s="26"/>
-      <c r="F45" s="26"/>
+      <c r="C45" s="29"/>
+      <c r="D45" s="29"/>
+      <c r="E45" s="29"/>
+      <c r="F45" s="29"/>
     </row>
     <row r="47" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A47" s="30" t="s">
+      <c r="A47" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="B47" s="26"/>
-      <c r="C47" s="28" t="s">
+      <c r="B47" s="29"/>
+      <c r="C47" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="D47" s="26"/>
+      <c r="D47" s="29"/>
       <c r="E47" s="10" t="s">
         <v>79</v>
       </c>
@@ -3072,23 +3116,23 @@
       <c r="A56" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B56" s="29" t="s">
+      <c r="B56" s="30" t="s">
         <v>124</v>
       </c>
-      <c r="C56" s="26"/>
-      <c r="D56" s="26"/>
-      <c r="E56" s="26"/>
-      <c r="F56" s="26"/>
+      <c r="C56" s="29"/>
+      <c r="D56" s="29"/>
+      <c r="E56" s="29"/>
+      <c r="F56" s="29"/>
     </row>
     <row r="58" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A58" s="30" t="s">
+      <c r="A58" s="32" t="s">
         <v>125</v>
       </c>
-      <c r="B58" s="26"/>
-      <c r="C58" s="28" t="s">
+      <c r="B58" s="29"/>
+      <c r="C58" s="31" t="s">
         <v>126</v>
       </c>
-      <c r="D58" s="26"/>
+      <c r="D58" s="29"/>
       <c r="E58" s="10" t="s">
         <v>64</v>
       </c>
@@ -3146,23 +3190,23 @@
       <c r="A67" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B67" s="29" t="s">
+      <c r="B67" s="30" t="s">
         <v>136</v>
       </c>
-      <c r="C67" s="26"/>
-      <c r="D67" s="26"/>
-      <c r="E67" s="26"/>
-      <c r="F67" s="26"/>
+      <c r="C67" s="29"/>
+      <c r="D67" s="29"/>
+      <c r="E67" s="29"/>
+      <c r="F67" s="29"/>
     </row>
     <row r="69" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A69" s="30" t="s">
+      <c r="A69" s="32" t="s">
         <v>137</v>
       </c>
-      <c r="B69" s="26"/>
-      <c r="C69" s="28" t="s">
+      <c r="B69" s="29"/>
+      <c r="C69" s="31" t="s">
         <v>138</v>
       </c>
-      <c r="D69" s="26"/>
+      <c r="D69" s="29"/>
       <c r="E69" s="10" t="s">
         <v>64</v>
       </c>
@@ -3225,23 +3269,23 @@
       <c r="A79" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B79" s="29" t="s">
+      <c r="B79" s="30" t="s">
         <v>149</v>
       </c>
-      <c r="C79" s="26"/>
-      <c r="D79" s="26"/>
-      <c r="E79" s="26"/>
-      <c r="F79" s="26"/>
+      <c r="C79" s="29"/>
+      <c r="D79" s="29"/>
+      <c r="E79" s="29"/>
+      <c r="F79" s="29"/>
     </row>
     <row r="81" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A81" s="30" t="s">
+      <c r="A81" s="32" t="s">
         <v>150</v>
       </c>
-      <c r="B81" s="26"/>
-      <c r="C81" s="28" t="s">
+      <c r="B81" s="29"/>
+      <c r="C81" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="D81" s="26"/>
+      <c r="D81" s="29"/>
       <c r="E81" s="10" t="s">
         <v>152</v>
       </c>
@@ -3299,25 +3343,16 @@
       <c r="A90" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B90" s="29" t="s">
+      <c r="B90" s="30" t="s">
         <v>162</v>
       </c>
-      <c r="C90" s="26"/>
-      <c r="D90" s="26"/>
-      <c r="E90" s="26"/>
-      <c r="F90" s="26"/>
+      <c r="C90" s="29"/>
+      <c r="D90" s="29"/>
+      <c r="E90" s="29"/>
+      <c r="F90" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B67:F67"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="B90:F90"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="B56:F56"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="A81:B81"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="C81:D81"/>
     <mergeCell ref="B45:F45"/>
@@ -3334,6 +3369,15 @@
     <mergeCell ref="C47:D47"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="C25:D25"/>
+    <mergeCell ref="B67:F67"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="B90:F90"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="B56:F56"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A81:B81"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3359,15 +3403,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="33" t="s">
         <v>163</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -3384,59 +3428,59 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="34" t="s">
         <v>168</v>
       </c>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>169</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>170</v>
       </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>171</v>
       </c>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
     </row>
     <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="31" t="s">
+      <c r="A10" s="34" t="s">
         <v>172</v>
       </c>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
@@ -3546,66 +3590,66 @@
       <c r="B18" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
     </row>
     <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="31" t="s">
+      <c r="A20" s="34" t="s">
         <v>182</v>
       </c>
-      <c r="B20" s="26"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
     </row>
     <row r="21" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="B21" s="26"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="B22" s="26"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
     </row>
     <row r="23" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="B23" s="26"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
     </row>
     <row r="24" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B24" s="26"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -3634,7 +3678,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H7" sqref="H7"/>
+      <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -3648,28 +3692,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="33" t="s">
         <v>187</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="36" t="s">
         <v>188</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
     </row>
     <row r="5" spans="1:8" ht="28" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
@@ -3749,7 +3793,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
         <v>196</v>
       </c>
@@ -3759,8 +3803,23 @@
       <c r="C8" s="20" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D8" s="20" t="s">
+        <v>584</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>586</v>
+      </c>
+      <c r="F8" s="22">
+        <v>1</v>
+      </c>
+      <c r="G8" s="21" t="s">
+        <v>588</v>
+      </c>
+      <c r="H8" s="25" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="118" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
         <v>197</v>
       </c>
@@ -3769,6 +3828,21 @@
       </c>
       <c r="C9" s="20" t="s">
         <v>54</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>585</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>587</v>
+      </c>
+      <c r="F9" s="22">
+        <v>1</v>
+      </c>
+      <c r="G9" s="21" t="s">
+        <v>589</v>
+      </c>
+      <c r="H9" s="25" t="s">
+        <v>591</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -6562,8 +6636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -6575,14 +6649,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="33" t="s">
         <v>436</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
@@ -6611,10 +6685,10 @@
       <c r="B4" s="11" t="s">
         <v>442</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="26" t="s">
         <v>580</v>
       </c>
-      <c r="D4" s="36">
+      <c r="D4" s="27">
         <v>46029</v>
       </c>
       <c r="E4" s="18" t="s">
@@ -6622,33 +6696,41 @@
       </c>
       <c r="F4" s="24"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A5" s="17" t="s">
         <v>444</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>442</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
+      <c r="C5" s="26" t="s">
+        <v>580</v>
+      </c>
+      <c r="D5" s="27">
+        <v>46032</v>
+      </c>
       <c r="E5" s="18" t="s">
         <v>445</v>
       </c>
-      <c r="F5" s="18"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F5" s="24"/>
+    </row>
+    <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A6" s="17" t="s">
         <v>446</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>442</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
+      <c r="C6" s="26" t="s">
+        <v>580</v>
+      </c>
+      <c r="D6" s="27">
+        <v>46032</v>
+      </c>
       <c r="E6" s="18" t="s">
         <v>447</v>
       </c>
-      <c r="F6" s="18"/>
+      <c r="F6" s="24"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
@@ -7005,7 +7087,7 @@
       </c>
       <c r="B35">
         <f>COUNTIF(C4:C30,"✓")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -7014,7 +7096,7 @@
       </c>
       <c r="B36" s="19">
         <f>B35/B34</f>
-        <v>3.7037037037037035E-2</v>
+        <v>0.1111111111111111</v>
       </c>
     </row>
   </sheetData>
@@ -7030,7 +7112,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7040,20 +7124,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="33" t="s">
         <v>508</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
     </row>
     <row r="3" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="34" t="s">
         <v>509</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -7103,12 +7187,12 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="34" t="s">
         <v>523</v>
       </c>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -7144,12 +7228,12 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="31" t="s">
+      <c r="A14" s="34" t="s">
         <v>532</v>
       </c>
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -7208,12 +7292,12 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="31" t="s">
+      <c r="A20" s="34" t="s">
         <v>549</v>
       </c>
-      <c r="B20" s="26"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -7260,12 +7344,12 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A26" s="31" t="s">
+      <c r="A26" s="34" t="s">
         <v>562</v>
       </c>
-      <c r="B26" s="26"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
